--- a/biology/Histoire de la zoologie et de la botanique/Euricius_Cordus/Euricius_Cordus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Euricius_Cordus/Euricius_Cordus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euricius Cordus (1486 à Münchhausen-1535 à Brême) est un botaniste, médecin et auteur d'épigrammes allemand[1]. Il est le père de Valerius Cordus (1515-1544), également botaniste et médecin[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euricius Cordus (1486 à Münchhausen-1535 à Brême) est un botaniste, médecin et auteur d'épigrammes allemand. Il est le père de Valerius Cordus (1515-1544), également botaniste et médecin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Cordus », nom latin qu'il a adopté, signifie « né tardivement » ; il était en effet le dernier d'une famille de treize. Il a eu comme maîtres le chroniqueur Wigand Gerstenberg (de) et le poète néolatin Helius Eobanus Hessus. Ce dernier était dans son cercle d'amis, avec Mutianus Rufus (de) et Joachim Camerarius l'Ancien.
 Il étudie les arts libéraux à l'université d'Erfurt.
@@ -547,7 +561,9 @@
           <t>Écrits (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Epigrammata, 1520
 (la) Botanicon, Cologne, 1534
